--- a/action_recog_with_function/cnnRec/识别结果.xlsx
+++ b/action_recog_with_function/cnnRec/识别结果.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\developer\PycharmProject\PytorchBasic\action_recog_with_function\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\developer\PycharmProject\PytorchBasic\action_recog_with_function\cnnRec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140B9962-8D70-4C41-BC52-5AA51CF72186}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4247D2-900A-44E8-A71D-800594675374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10530" yWindow="900" windowWidth="16425" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11460" yWindow="4320" windowWidth="16425" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -980,13 +980,13 @@
         <v>9</v>
       </c>
       <c r="C31" s="3">
-        <v>0.81</v>
+        <v>0.82399999999999995</v>
       </c>
       <c r="D31" s="3">
         <v>0.82</v>
       </c>
       <c r="E31" s="3">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="2" t="s">
@@ -1137,13 +1137,13 @@
         <v>9</v>
       </c>
       <c r="C37" s="5">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="D37" s="3">
-        <v>0.87</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="E37" s="3">
-        <v>0.87</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="H37" s="9"/>
       <c r="I37" s="2" t="s">
@@ -1191,10 +1191,10 @@
         <v>0.83</v>
       </c>
       <c r="D39" s="3">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="E39" s="3">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="H39" s="9"/>
       <c r="I39" s="2" t="s">
@@ -1212,6 +1212,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H36:H37"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A38:A39"/>
@@ -1228,15 +1237,6 @@
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="F33:G34"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="H36:H37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
